--- a/MarkingSheet/marking-sheet.xlsx
+++ b/MarkingSheet/marking-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\SEM_group_project\MarkingSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D3045ED-A3EF-43B5-90B1-C902B9D02AF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA1648F-5E0F-4AEA-84FA-6B16C8697CDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9918A3FF-DBD3-4DC8-955A-713BDC2EB953}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +117,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -138,13 +146,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -464,7 +475,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,8 +488,8 @@
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3"/>

--- a/MarkingSheet/marking-sheet.xlsx
+++ b/MarkingSheet/marking-sheet.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\SEM_group_project\MarkingSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SEM\IdeaProjects\SEM_group_project\MarkingSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA1648F-5E0F-4AEA-84FA-6B16C8697CDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9918A3FF-DBD3-4DC8-955A-713BDC2EB953}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -88,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,10 +151,10 @@
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -471,7 +470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331C38B-F699-4B4D-A1EB-854F7DB5970E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -489,14 +488,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -528,6 +527,9 @@
       <c r="C3">
         <v>25</v>
       </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -539,6 +541,9 @@
       <c r="C4">
         <v>25</v>
       </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -550,6 +555,9 @@
       <c r="C5">
         <v>25</v>
       </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -561,6 +569,9 @@
       <c r="C6">
         <v>25</v>
       </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -570,6 +581,9 @@
         <v>100</v>
       </c>
       <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
         <v>100</v>
       </c>
     </row>
